--- a/biology/Médecine/Craniosynostose/Craniosynostose.xlsx
+++ b/biology/Médecine/Craniosynostose/Craniosynostose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les craniosynostoses ou craniosténoses sont des pathologies en rapport avec une soudure prématurée d'une ou plusieurs sutures crâniennes. Cette pathologie intervient dès la vie fœtale.
 </t>
@@ -511,7 +523,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 2 500 naissances.
 </t>
@@ -544,17 +558,128 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Craniosynostose primaire
-Représente la très grande majorité des craniosynostoses.
-Due à un défaut d’ossification sans autre anomalie, la croissance du crâne entraîne une déformation parallèle à la suture impliquée.
-Craniosynostose secondaire
-Due à un arrêt de la croissance du cerveau, le patient présente une microcéphalie avec souvent un retard mental. Ces craniosynostoses se voient souvent aussi dans les maladies métaboliques sévères.
-Suspicion de risque statistiquement augmenté de craniosténose chez le nourrisson secondairement à la prise par la mère d'un traitement antidépresseur par inhibiteur sélectif de la recapture de la sérotonine : résultat d'une enquête téléphonique portant sur les prises médicamenteuses maternelles durant la grossesse et le mois la précédant[1].
-Craniosynostose syndromique
-Représente 15 % des craniosynostoses.
-La craniosynostose est associée avec d’autres anomalies du corps. Il existe plus de 150 syndromes comportant une craniosynostose[2].
-Craniosynostoses par mutation des gènes FGFR
-Ce groupe est en rapport avec la mutation d'un gène FGFR. Ces craniosynostoses sont souvent associées avec des anomalies des pieds et des mains, regroupés sous le terme générique d’acrocéphalosyndactylie. Toutes sont des maladies à transmission autosomique dominante.
+          <t>Craniosynostose primaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Représente la très grande majorité des craniosynostoses.
+Due à un défaut d’ossification sans autre anomalie, la croissance du crâne entraîne une déformation parallèle à la suture impliquée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Craniosynostose secondaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Due à un arrêt de la croissance du cerveau, le patient présente une microcéphalie avec souvent un retard mental. Ces craniosynostoses se voient souvent aussi dans les maladies métaboliques sévères.
+Suspicion de risque statistiquement augmenté de craniosténose chez le nourrisson secondairement à la prise par la mère d'un traitement antidépresseur par inhibiteur sélectif de la recapture de la sérotonine : résultat d'une enquête téléphonique portant sur les prises médicamenteuses maternelles durant la grossesse et le mois la précédant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Craniosynostose syndromique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Représente 15 % des craniosynostoses.
+La craniosynostose est associée avec d’autres anomalies du corps. Il existe plus de 150 syndromes comportant une craniosynostose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Craniosynostose syndromique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Craniosynostoses par mutation des gènes FGFR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe est en rapport avec la mutation d'un gène FGFR. Ces craniosynostoses sont souvent associées avec des anomalies des pieds et des mains, regroupés sous le terme générique d’acrocéphalosyndactylie. Toutes sont des maladies à transmission autosomique dominante.
 Syndrome de Pfeiffer : Mutation du gène FGFR1 et FGFR2
 Syndrome de Jackson-Weiss : Mutation du gène FGFR2
 Syndrome d'Apert : Mutation du gène FGFR2
@@ -562,15 +687,92 @@
 Syndrome de Crouzon : Mutation du gène FGFR2
 Syndrome de Crouzon avec acanthosis nigricans : Mutation du gène FGFR3
 Syndrome de Muenke : Mutation du gène FGFR3
-Craniosynostoses par mutation d’autres gènes
-Par mutation du gène MSX2
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Craniosynostose syndromique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Craniosynostoses par mutation d’autres gènes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Par mutation du gène MSX2
 Craniosynostose type Boston
 Par mutation du gène TWIST
 Syndrome de Saethre-Chotzen
 Par mutation du gène PHEX
-Hyphosphatémie liée à l'X[3]
-Autres craniosynostoses syndromiques
-Syndrome de Antley-Bixler
+Hyphosphatémie liée à l'X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Craniosynostose syndromique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres craniosynostoses syndromiques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Syndrome de Antley-Bixler
 Syndrome de Baller-Gerold
 Syndrome de Colle-Carpenter
 Dysplasie cranio fronto nasale
@@ -580,93 +782,99 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont possibles et varient selon l'importance de la craniosynostose[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont possibles et varient selon l'importance de la craniosynostose.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise en charge de cette pathologie doit être faite dans des centres spécialisées dans le traitement des craniosynostoses.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Principe de traitement des principales anomalies craniofaciales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cicatrices visibles sont évitées au maximum. L'abord principal du squelette craniofacial s'effectuera au travers des cheveux. Les cheveux ne sont pas rasés. Une longue incision est faite d'une oreille à l'autre, assez loin en arrière, en zigzag sur les tempes. On obtient ainsi un bon accès aux zones à corriger et la cicatrice finale est pratiquement invisible.
 Une ouverture supplémentaire est effectuée assez souvent au niveau des paupières, sans aucune cicatrice si l'incision est faite à l'intérieur, ou avec une cicatrice presque invisible sous les cils. Parfois une ouverture est faite également à l'intérieur de la bouche, au travers de la muqueuse de la lèvre supérieure.
@@ -675,31 +883,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Craniosténoses - remodelage frontocrânien</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crâne déformé va être corrigé en déposant les parties anormales et en les remettant en place après correction, fixées précisément en bonne position.
 Une technique différente est utilisée pour chaque type de craniosténose.
@@ -708,75 +918,221 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Principaux types de craniosténoses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachycéphalie
-(front reculé et vertical)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Brachycéphalie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(front reculé et vertical)
 Un avancement de la partie supérieure des orbites est réalisé, et le front est replacé au-dessus. Correction précoce d'une brachycéphalie : front et bandeau orbitaire sont déposés et avancés de 20 mm. Les fixations sont faites au niveau du massif facial et du front.
-Oxycéphalie
-Dans le cas d'une oxycéphalie (front basculé en arrière et sommet du crâne pointu), il s'agit habituellement d'une déformation tardive, apparaissant entre 3 et 5 ans. La correction est obtenue par la bascule et l'avancement de la partie supérieure des orbites et la correction frontale.
-Plagiocéphalie
-Dans le cas d'une plagiocéphalie (asymétrie du front, des orbites, du nez), une correction bilatérale est effectuée, en avançant le côté reculé et en reconstruisant un front - en une pièce - en position normale.
-Scaphocéphalie
-Dans le cas d'une scaphocéphalie (rétrécissement transversal et élongation) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Principaux types de craniosténoses</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oxycéphalie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'une oxycéphalie (front basculé en arrière et sommet du crâne pointu), il s'agit habituellement d'une déformation tardive, apparaissant entre 3 et 5 ans. La correction est obtenue par la bascule et l'avancement de la partie supérieure des orbites et la correction frontale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Principaux types de craniosténoses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plagiocéphalie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'une plagiocéphalie (asymétrie du front, des orbites, du nez), une correction bilatérale est effectuée, en avançant le côté reculé et en reconstruisant un front - en une pièce - en position normale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Principaux types de craniosténoses</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Scaphocéphalie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dans le cas d'une scaphocéphalie (rétrécissement transversal et élongation) :
 pendant les premiers mois de vie, une simple intervention d'élargissement de la partie centrale sténosée du crâne est suffisante ;
-plus tard, et dans quelques formes sévères, un remodelage frontal et postérieur doit également être réalisé.
-Trigonocéphalie
-(front triangulaire avec une crête médiane)
+plus tard, et dans quelques formes sévères, un remodelage frontal et postérieur doit également être réalisé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Principaux types de craniosténoses</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Trigonocéphalie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(front triangulaire avec une crête médiane)
 Le front est corrigé en redressant le bord supérieur des orbites et en reconstruisant un front plat.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Avancement de la face</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Le plus souvent il s'agit d'avancer toute la partie moyenne de la face, le nez, les pommettes, et les dents supérieures. On réalise une ostéotomie dite « Le Fort III ».
 Parfois, on réalise un « Le Fort II » qui laisse en place le nez quand celui-ci est en bonne position.
@@ -786,31 +1142,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Correction de l'hypertélorisme - rapprochement et déplacement des orbites</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de rapprocher les orbites (et les yeux) en réséquant la partie médiane élargie du nez.
 Les orbites sont libérées par une ostéotomie circonférencielle.
@@ -823,31 +1181,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Craniosynostose</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Craniosynostose</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craniosynostose</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Asymétrie orbitaire, dystopie orbitaire</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les cas, on mobilisera uniquement une orbite pour l'amener au niveau voulu, ou bien, les deux orbites simultanément si un hypertélorisme est associé.
 </t>
